--- a/doc/流速.xlsx
+++ b/doc/流速.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,157 @@
   </si>
   <si>
     <t>z33</t>
+  </si>
+  <si>
+    <t>z45</t>
+  </si>
+  <si>
+    <t>z40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z41</t>
+  </si>
+  <si>
+    <t>z42</t>
+  </si>
+  <si>
+    <t>z43</t>
+  </si>
+  <si>
+    <t>z44</t>
+  </si>
+  <si>
+    <t>层面1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z46</t>
+  </si>
+  <si>
+    <t>z47</t>
+  </si>
+  <si>
+    <t>z48</t>
+  </si>
+  <si>
+    <t>z49</t>
+  </si>
+  <si>
+    <t>z50</t>
+  </si>
+  <si>
+    <t>z51</t>
+  </si>
+  <si>
+    <t>z52</t>
+  </si>
+  <si>
+    <t>z53</t>
+  </si>
+  <si>
+    <t>z54</t>
+  </si>
+  <si>
+    <t>z55</t>
+  </si>
+  <si>
+    <t>z56</t>
+  </si>
+  <si>
+    <t>z57</t>
+  </si>
+  <si>
+    <t>z58</t>
+  </si>
+  <si>
+    <t>z59</t>
+  </si>
+  <si>
+    <t>z60</t>
+  </si>
+  <si>
+    <t>z61</t>
+  </si>
+  <si>
+    <t>z62</t>
+  </si>
+  <si>
+    <t>z63</t>
+  </si>
+  <si>
+    <t>z64</t>
+  </si>
+  <si>
+    <t>z65</t>
+  </si>
+  <si>
+    <t>z66</t>
+  </si>
+  <si>
+    <t>层面2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层面3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层面4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层面5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层面6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z67</t>
+  </si>
+  <si>
+    <t>z69</t>
+  </si>
+  <si>
+    <t>z68</t>
+  </si>
+  <si>
+    <t>z70</t>
+  </si>
+  <si>
+    <t>z71</t>
+  </si>
+  <si>
+    <t>z72</t>
+  </si>
+  <si>
+    <t>z73</t>
+  </si>
+  <si>
+    <t>z74</t>
+  </si>
+  <si>
+    <t>z75</t>
+  </si>
+  <si>
+    <t>z76</t>
+  </si>
+  <si>
+    <t>z77</t>
+  </si>
+  <si>
+    <t>z78</t>
+  </si>
+  <si>
+    <t>z79</t>
+  </si>
+  <si>
+    <t>z80</t>
+  </si>
+  <si>
+    <t>z81</t>
   </si>
 </sst>
 </file>
@@ -369,7 +520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,13 +533,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -397,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +604,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,20 +887,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -733,8 +914,9 @@
         <v>35</v>
       </c>
       <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -751,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>5</v>
       </c>
@@ -769,7 +951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <f>A4+C4</f>
         <v>8</v>
@@ -788,7 +970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" ref="A6:A42" si="1">A5+C5</f>
         <v>11</v>
@@ -807,7 +989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -826,7 +1008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -845,7 +1027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -864,7 +1046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -883,7 +1065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -902,7 +1084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -921,7 +1103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -940,7 +1122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -959,7 +1141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -978,7 +1160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -1301,7 +1483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>166</v>
@@ -1320,7 +1502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -1339,7 +1521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>183</v>
@@ -1358,7 +1540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1">
+    <row r="36" spans="1:7" s="9" customFormat="1">
       <c r="A36">
         <f>A35+C35</f>
         <v>196</v>
@@ -1367,17 +1549,23 @@
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <v>2</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1">
+    <row r="37" spans="1:7" s="9" customFormat="1">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>198</v>
@@ -1386,14 +1574,18 @@
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <v>8</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1">
+      <c r="E37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>206</v>
@@ -1402,14 +1594,18 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="12">
         <v>8</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1">
+      <c r="E38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>214</v>
@@ -1418,14 +1614,18 @@
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>6</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="9" customFormat="1">
+      <c r="E39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" s="9" customFormat="1">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>220</v>
@@ -1434,14 +1634,18 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <v>6</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="9" customFormat="1">
+      <c r="E40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>226</v>
@@ -1450,14 +1654,18 @@
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="12">
         <v>4</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="9" customFormat="1">
+      <c r="E41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" s="9" customFormat="1">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>230</v>
@@ -1466,14 +1674,316 @@
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="12">
         <v>4</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="E42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="F57:F63"/>
+    <mergeCell ref="F50:F56"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
